--- a/backend/reports/Reporte_Monitoreo_Tanque_001_06_11_2025_a_06_11_2025.xlsx
+++ b/backend/reports/Reporte_Monitoreo_Tanque_001_06_11_2025_a_06_11_2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="180">
   <si>
     <t>Fecha</t>
   </si>
@@ -35,7 +35,19 @@
     <t>06/11/2025</t>
   </si>
   <si>
-    <t>14:50:21</t>
+    <t>15:44:36</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>Sensor Temperatura</t>
+  </si>
+  <si>
+    <t>temperatura</t>
+  </si>
+  <si>
+    <t>15:44:43</t>
   </si>
   <si>
     <t>OXYGEN</t>
@@ -47,394 +59,445 @@
     <t>oxigeno_disuelto</t>
   </si>
   <si>
-    <t>14:50:23</t>
-  </si>
-  <si>
-    <t>TEMPERATURE</t>
-  </si>
-  <si>
-    <t>Sensor Temperatura</t>
-  </si>
-  <si>
-    <t>temperatura</t>
-  </si>
-  <si>
-    <t>14:50:30</t>
-  </si>
-  <si>
-    <t>14:50:32</t>
-  </si>
-  <si>
-    <t>14:50:40</t>
-  </si>
-  <si>
-    <t>14:50:41</t>
-  </si>
-  <si>
-    <t>14:50:44</t>
-  </si>
-  <si>
-    <t>14:50:50</t>
-  </si>
-  <si>
-    <t>14:50:51</t>
-  </si>
-  <si>
-    <t>14:50:54</t>
-  </si>
-  <si>
-    <t>14:51:00</t>
-  </si>
-  <si>
-    <t>14:51:03</t>
-  </si>
-  <si>
-    <t>14:51:10</t>
-  </si>
-  <si>
-    <t>14:51:11</t>
-  </si>
-  <si>
-    <t>14:51:13</t>
-  </si>
-  <si>
-    <t>14:51:20</t>
-  </si>
-  <si>
-    <t>14:51:23</t>
-  </si>
-  <si>
-    <t>14:51:30</t>
-  </si>
-  <si>
-    <t>14:51:31</t>
-  </si>
-  <si>
-    <t>14:51:33</t>
-  </si>
-  <si>
-    <t>14:51:40</t>
-  </si>
-  <si>
-    <t>14:51:41</t>
-  </si>
-  <si>
-    <t>14:51:43</t>
-  </si>
-  <si>
-    <t>14:51:50</t>
-  </si>
-  <si>
-    <t>14:51:52</t>
-  </si>
-  <si>
-    <t>14:52:00</t>
-  </si>
-  <si>
-    <t>14:52:03</t>
-  </si>
-  <si>
-    <t>14:52:10</t>
-  </si>
-  <si>
-    <t>14:52:11</t>
-  </si>
-  <si>
-    <t>14:52:14</t>
-  </si>
-  <si>
-    <t>14:52:20</t>
-  </si>
-  <si>
-    <t>14:52:21</t>
-  </si>
-  <si>
-    <t>14:52:23</t>
-  </si>
-  <si>
-    <t>14:52:30</t>
-  </si>
-  <si>
-    <t>14:52:31</t>
-  </si>
-  <si>
-    <t>14:52:32</t>
-  </si>
-  <si>
-    <t>14:52:40</t>
-  </si>
-  <si>
-    <t>14:52:42</t>
-  </si>
-  <si>
-    <t>14:52:45</t>
-  </si>
-  <si>
-    <t>14:52:50</t>
-  </si>
-  <si>
-    <t>14:52:52</t>
-  </si>
-  <si>
-    <t>14:53:00</t>
-  </si>
-  <si>
-    <t>14:53:04</t>
-  </si>
-  <si>
-    <t>14:53:10</t>
-  </si>
-  <si>
-    <t>14:53:12</t>
-  </si>
-  <si>
-    <t>14:53:15</t>
-  </si>
-  <si>
-    <t>14:53:20</t>
-  </si>
-  <si>
-    <t>14:53:21</t>
-  </si>
-  <si>
-    <t>14:53:23</t>
-  </si>
-  <si>
-    <t>14:53:30</t>
-  </si>
-  <si>
-    <t>14:53:32</t>
-  </si>
-  <si>
-    <t>14:53:40</t>
-  </si>
-  <si>
-    <t>14:53:42</t>
-  </si>
-  <si>
-    <t>14:53:50</t>
-  </si>
-  <si>
-    <t>14:53:52</t>
-  </si>
-  <si>
-    <t>14:54:00</t>
-  </si>
-  <si>
-    <t>14:54:02</t>
-  </si>
-  <si>
-    <t>14:54:10</t>
-  </si>
-  <si>
-    <t>14:54:11</t>
-  </si>
-  <si>
-    <t>14:54:13</t>
-  </si>
-  <si>
-    <t>14:54:20</t>
-  </si>
-  <si>
-    <t>14:54:23</t>
-  </si>
-  <si>
-    <t>14:54:30</t>
-  </si>
-  <si>
-    <t>14:54:32</t>
-  </si>
-  <si>
-    <t>14:54:40</t>
-  </si>
-  <si>
-    <t>14:54:41</t>
-  </si>
-  <si>
-    <t>14:54:44</t>
-  </si>
-  <si>
-    <t>14:54:50</t>
-  </si>
-  <si>
-    <t>14:54:51</t>
-  </si>
-  <si>
-    <t>14:54:53</t>
-  </si>
-  <si>
-    <t>14:55:00</t>
-  </si>
-  <si>
-    <t>14:55:01</t>
-  </si>
-  <si>
-    <t>14:55:04</t>
-  </si>
-  <si>
-    <t>14:55:10</t>
-  </si>
-  <si>
-    <t>14:55:11</t>
-  </si>
-  <si>
-    <t>14:55:15</t>
-  </si>
-  <si>
-    <t>14:55:20</t>
-  </si>
-  <si>
-    <t>14:55:21</t>
-  </si>
-  <si>
-    <t>14:55:27</t>
-  </si>
-  <si>
-    <t>14:55:30</t>
-  </si>
-  <si>
-    <t>14:55:33</t>
-  </si>
-  <si>
-    <t>14:55:40</t>
-  </si>
-  <si>
-    <t>14:55:41</t>
-  </si>
-  <si>
-    <t>14:55:44</t>
-  </si>
-  <si>
-    <t>14:55:50</t>
-  </si>
-  <si>
-    <t>14:55:52</t>
-  </si>
-  <si>
-    <t>14:56:00</t>
-  </si>
-  <si>
-    <t>14:56:02</t>
-  </si>
-  <si>
-    <t>14:56:10</t>
-  </si>
-  <si>
-    <t>14:56:11</t>
-  </si>
-  <si>
-    <t>14:56:14</t>
-  </si>
-  <si>
-    <t>14:56:20</t>
-  </si>
-  <si>
-    <t>14:56:22</t>
-  </si>
-  <si>
-    <t>14:56:30</t>
-  </si>
-  <si>
-    <t>14:56:40</t>
-  </si>
-  <si>
-    <t>14:56:50</t>
-  </si>
-  <si>
-    <t>14:57:00</t>
-  </si>
-  <si>
-    <t>14:57:02</t>
-  </si>
-  <si>
-    <t>14:57:03</t>
-  </si>
-  <si>
-    <t>14:57:05</t>
-  </si>
-  <si>
-    <t>14:57:06</t>
-  </si>
-  <si>
-    <t>14:57:08</t>
-  </si>
-  <si>
-    <t>14:57:10</t>
-  </si>
-  <si>
-    <t>14:57:11</t>
-  </si>
-  <si>
-    <t>14:57:12</t>
-  </si>
-  <si>
-    <t>14:57:15</t>
-  </si>
-  <si>
-    <t>14:57:20</t>
-  </si>
-  <si>
-    <t>14:57:21</t>
-  </si>
-  <si>
-    <t>14:57:23</t>
-  </si>
-  <si>
-    <t>14:57:30</t>
-  </si>
-  <si>
-    <t>14:57:32</t>
-  </si>
-  <si>
-    <t>14:57:36</t>
-  </si>
-  <si>
-    <t>14:57:40</t>
-  </si>
-  <si>
-    <t>14:57:41</t>
-  </si>
-  <si>
-    <t>14:57:43</t>
-  </si>
-  <si>
-    <t>14:57:50</t>
-  </si>
-  <si>
-    <t>14:57:53</t>
-  </si>
-  <si>
-    <t>14:58:00</t>
-  </si>
-  <si>
-    <t>14:58:01</t>
-  </si>
-  <si>
-    <t>14:58:10</t>
-  </si>
-  <si>
-    <t>14:58:11</t>
-  </si>
-  <si>
-    <t>14:58:20</t>
-  </si>
-  <si>
-    <t>14:58:23</t>
-  </si>
-  <si>
-    <t>14:58:25</t>
-  </si>
-  <si>
-    <t>14:58:30</t>
-  </si>
-  <si>
-    <t>14:58:32</t>
-  </si>
-  <si>
-    <t>14:58:35</t>
-  </si>
-  <si>
-    <t>14:58:40</t>
+    <t>15:44:44</t>
+  </si>
+  <si>
+    <t>15:44:46</t>
+  </si>
+  <si>
+    <t>15:44:53</t>
+  </si>
+  <si>
+    <t>15:44:55</t>
+  </si>
+  <si>
+    <t>15:44:57</t>
+  </si>
+  <si>
+    <t>15:45:03</t>
+  </si>
+  <si>
+    <t>15:45:04</t>
+  </si>
+  <si>
+    <t>15:45:06</t>
+  </si>
+  <si>
+    <t>15:45:13</t>
+  </si>
+  <si>
+    <t>15:45:14</t>
+  </si>
+  <si>
+    <t>15:45:16</t>
+  </si>
+  <si>
+    <t>15:45:23</t>
+  </si>
+  <si>
+    <t>15:45:25</t>
+  </si>
+  <si>
+    <t>15:45:26</t>
+  </si>
+  <si>
+    <t>15:45:33</t>
+  </si>
+  <si>
+    <t>15:45:34</t>
+  </si>
+  <si>
+    <t>15:45:36</t>
+  </si>
+  <si>
+    <t>15:45:43</t>
+  </si>
+  <si>
+    <t>15:45:44</t>
+  </si>
+  <si>
+    <t>15:45:46</t>
+  </si>
+  <si>
+    <t>15:45:53</t>
+  </si>
+  <si>
+    <t>15:45:54</t>
+  </si>
+  <si>
+    <t>15:45:56</t>
+  </si>
+  <si>
+    <t>15:46:03</t>
+  </si>
+  <si>
+    <t>15:46:06</t>
+  </si>
+  <si>
+    <t>15:46:13</t>
+  </si>
+  <si>
+    <t>15:46:14</t>
+  </si>
+  <si>
+    <t>15:46:17</t>
+  </si>
+  <si>
+    <t>15:46:23</t>
+  </si>
+  <si>
+    <t>15:46:24</t>
+  </si>
+  <si>
+    <t>15:46:29</t>
+  </si>
+  <si>
+    <t>15:46:33</t>
+  </si>
+  <si>
+    <t>15:46:34</t>
+  </si>
+  <si>
+    <t>15:46:43</t>
+  </si>
+  <si>
+    <t>15:46:44</t>
+  </si>
+  <si>
+    <t>15:46:46</t>
+  </si>
+  <si>
+    <t>15:46:53</t>
+  </si>
+  <si>
+    <t>15:46:54</t>
+  </si>
+  <si>
+    <t>15:46:57</t>
+  </si>
+  <si>
+    <t>15:47:03</t>
+  </si>
+  <si>
+    <t>15:47:04</t>
+  </si>
+  <si>
+    <t>15:47:06</t>
+  </si>
+  <si>
+    <t>15:47:07</t>
+  </si>
+  <si>
+    <t>15:47:13</t>
+  </si>
+  <si>
+    <t>15:47:14</t>
+  </si>
+  <si>
+    <t>15:47:17</t>
+  </si>
+  <si>
+    <t>15:47:23</t>
+  </si>
+  <si>
+    <t>15:47:24</t>
+  </si>
+  <si>
+    <t>15:47:27</t>
+  </si>
+  <si>
+    <t>15:47:33</t>
+  </si>
+  <si>
+    <t>15:47:34</t>
+  </si>
+  <si>
+    <t>15:47:36</t>
+  </si>
+  <si>
+    <t>15:47:43</t>
+  </si>
+  <si>
+    <t>15:47:44</t>
+  </si>
+  <si>
+    <t>15:47:47</t>
+  </si>
+  <si>
+    <t>15:47:53</t>
+  </si>
+  <si>
+    <t>15:47:54</t>
+  </si>
+  <si>
+    <t>15:47:56</t>
+  </si>
+  <si>
+    <t>15:48:03</t>
+  </si>
+  <si>
+    <t>15:48:04</t>
+  </si>
+  <si>
+    <t>15:48:06</t>
+  </si>
+  <si>
+    <t>15:48:13</t>
+  </si>
+  <si>
+    <t>15:48:14</t>
+  </si>
+  <si>
+    <t>15:48:16</t>
+  </si>
+  <si>
+    <t>15:48:23</t>
+  </si>
+  <si>
+    <t>15:48:24</t>
+  </si>
+  <si>
+    <t>15:48:26</t>
+  </si>
+  <si>
+    <t>15:48:33</t>
+  </si>
+  <si>
+    <t>15:48:34</t>
+  </si>
+  <si>
+    <t>15:48:36</t>
+  </si>
+  <si>
+    <t>15:48:43</t>
+  </si>
+  <si>
+    <t>15:48:45</t>
+  </si>
+  <si>
+    <t>15:48:47</t>
+  </si>
+  <si>
+    <t>15:48:53</t>
+  </si>
+  <si>
+    <t>15:48:54</t>
+  </si>
+  <si>
+    <t>15:48:56</t>
+  </si>
+  <si>
+    <t>15:49:03</t>
+  </si>
+  <si>
+    <t>15:49:04</t>
+  </si>
+  <si>
+    <t>15:49:08</t>
+  </si>
+  <si>
+    <t>15:49:13</t>
+  </si>
+  <si>
+    <t>15:49:14</t>
+  </si>
+  <si>
+    <t>15:49:16</t>
+  </si>
+  <si>
+    <t>15:49:23</t>
+  </si>
+  <si>
+    <t>15:49:24</t>
+  </si>
+  <si>
+    <t>15:49:26</t>
+  </si>
+  <si>
+    <t>15:49:33</t>
+  </si>
+  <si>
+    <t>15:49:34</t>
+  </si>
+  <si>
+    <t>15:49:36</t>
+  </si>
+  <si>
+    <t>15:49:43</t>
+  </si>
+  <si>
+    <t>15:49:44</t>
+  </si>
+  <si>
+    <t>15:49:46</t>
+  </si>
+  <si>
+    <t>15:49:53</t>
+  </si>
+  <si>
+    <t>15:49:55</t>
+  </si>
+  <si>
+    <t>15:49:57</t>
+  </si>
+  <si>
+    <t>15:50:03</t>
+  </si>
+  <si>
+    <t>15:50:04</t>
+  </si>
+  <si>
+    <t>15:50:06</t>
+  </si>
+  <si>
+    <t>15:50:13</t>
+  </si>
+  <si>
+    <t>15:50:14</t>
+  </si>
+  <si>
+    <t>15:50:16</t>
+  </si>
+  <si>
+    <t>15:50:23</t>
+  </si>
+  <si>
+    <t>15:50:24</t>
+  </si>
+  <si>
+    <t>15:50:26</t>
+  </si>
+  <si>
+    <t>15:50:33</t>
+  </si>
+  <si>
+    <t>15:50:34</t>
+  </si>
+  <si>
+    <t>15:50:36</t>
+  </si>
+  <si>
+    <t>15:50:43</t>
+  </si>
+  <si>
+    <t>15:50:44</t>
+  </si>
+  <si>
+    <t>15:50:46</t>
+  </si>
+  <si>
+    <t>15:50:53</t>
+  </si>
+  <si>
+    <t>15:50:54</t>
+  </si>
+  <si>
+    <t>15:50:56</t>
+  </si>
+  <si>
+    <t>15:51:03</t>
+  </si>
+  <si>
+    <t>15:51:04</t>
+  </si>
+  <si>
+    <t>15:51:06</t>
+  </si>
+  <si>
+    <t>15:51:13</t>
+  </si>
+  <si>
+    <t>15:51:14</t>
+  </si>
+  <si>
+    <t>15:51:16</t>
+  </si>
+  <si>
+    <t>15:51:18</t>
+  </si>
+  <si>
+    <t>15:51:23</t>
+  </si>
+  <si>
+    <t>15:51:24</t>
+  </si>
+  <si>
+    <t>15:51:26</t>
+  </si>
+  <si>
+    <t>15:51:33</t>
+  </si>
+  <si>
+    <t>15:51:35</t>
+  </si>
+  <si>
+    <t>15:51:38</t>
+  </si>
+  <si>
+    <t>15:51:43</t>
+  </si>
+  <si>
+    <t>15:51:44</t>
+  </si>
+  <si>
+    <t>15:51:47</t>
+  </si>
+  <si>
+    <t>15:51:53</t>
+  </si>
+  <si>
+    <t>15:51:55</t>
+  </si>
+  <si>
+    <t>15:52:03</t>
+  </si>
+  <si>
+    <t>15:52:09</t>
+  </si>
+  <si>
+    <t>15:52:12</t>
+  </si>
+  <si>
+    <t>15:52:13</t>
+  </si>
+  <si>
+    <t>15:52:14</t>
+  </si>
+  <si>
+    <t>15:52:15</t>
+  </si>
+  <si>
+    <t>15:52:16</t>
+  </si>
+  <si>
+    <t>15:52:23</t>
+  </si>
+  <si>
+    <t>15:52:24</t>
+  </si>
+  <si>
+    <t>15:52:26</t>
+  </si>
+  <si>
+    <t>15:52:33</t>
+  </si>
+  <si>
+    <t>15:52:35</t>
+  </si>
+  <si>
+    <t>15:52:43</t>
+  </si>
+  <si>
+    <t>15:52:44</t>
+  </si>
+  <si>
+    <t>15:52:46</t>
+  </si>
+  <si>
+    <t>15:52:53</t>
+  </si>
+  <si>
+    <t>15:52:54</t>
   </si>
   <si>
     <t>Reporte de Monitoreo Acuático</t>
@@ -446,7 +509,7 @@
     <t>Título:</t>
   </si>
   <si>
-    <t>Reporte por Lote - Tanque 001 (200 datos del 06/11/2025 14:50:21 al 06/11/2025 14:58:40)</t>
+    <t>Reporte por Lote - Tanque 001 (200 datos del 06/11/2025 15:44:36 al 06/11/2025 15:52:54)</t>
   </si>
   <si>
     <t>Período:</t>
@@ -473,22 +536,22 @@
     <t>Máximo</t>
   </si>
   <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>8.84</t>
-  </si>
-  <si>
-    <t>23.80</t>
-  </si>
-  <si>
-    <t>23.75</t>
-  </si>
-  <si>
-    <t>23.87</t>
+    <t>23.89</t>
+  </si>
+  <si>
+    <t>23.81</t>
+  </si>
+  <si>
+    <t>23.94</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>8.71</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>7.49</v>
+        <v>23.81</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -1030,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="8">
-        <v>23.81</v>
+        <v>7.57</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -1044,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>7.65</v>
+        <v>23.87</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -1070,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8">
-        <v>23.81</v>
+        <v>7.57</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1084,13 +1147,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6">
-        <v>7.65</v>
+        <v>23.87</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>9</v>
@@ -1104,13 +1167,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>23.81</v>
+        <v>7.74</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1130,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>7.68</v>
+        <v>23.94</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>9</v>
@@ -1144,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="8">
-        <v>23.81</v>
+        <v>7.74</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1164,13 +1227,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="6">
-        <v>7.68</v>
+        <v>23.94</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
@@ -1184,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="8">
-        <v>23.81</v>
+        <v>7.82</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1210,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>7.74</v>
+        <v>23.87</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
@@ -1224,13 +1287,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="8">
-        <v>23.81</v>
+        <v>7.82</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1244,13 +1307,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="6">
-        <v>7.74</v>
+        <v>23.87</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
@@ -1264,13 +1327,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8">
-        <v>23.81</v>
+        <v>7.72</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1290,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="6">
-        <v>7.62</v>
+        <v>23.94</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -1304,19 +1367,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8">
-        <v>7.62</v>
+        <v>7.72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,19 +1387,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,19 +1407,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="8">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,19 +1427,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6">
-        <v>7.25</v>
+        <v>8.24</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,13 +1447,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="8">
-        <v>23.81</v>
+        <v>8.24</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1404,13 +1467,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="6">
-        <v>7.25</v>
+        <v>23.87</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>9</v>
@@ -1424,13 +1487,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8">
-        <v>23.81</v>
+        <v>7.68</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -1444,13 +1507,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6">
-        <v>7.14</v>
+        <v>23.87</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>9</v>
@@ -1464,19 +1527,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" s="8">
-        <v>7.14</v>
+        <v>7.68</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,19 +1547,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" s="6">
-        <v>23.75</v>
+        <v>23.87</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8">
-        <v>23.75</v>
+        <v>7.94</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -1524,13 +1587,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="6">
-        <v>7.34</v>
+        <v>23.87</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>9</v>
@@ -1544,13 +1607,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="8">
-        <v>23.81</v>
+        <v>7.94</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
@@ -1564,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="6">
-        <v>7.34</v>
+        <v>23.87</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>9</v>
@@ -1584,13 +1647,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8">
-        <v>23.81</v>
+        <v>8.11</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -1604,13 +1667,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="6">
-        <v>7.26</v>
+        <v>23.87</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>9</v>
@@ -1624,13 +1687,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="8">
-        <v>23.81</v>
+        <v>8.11</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -1644,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="6">
-        <v>7.26</v>
+        <v>23.87</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
@@ -1664,13 +1727,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="8">
-        <v>23.81</v>
+        <v>7.99</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -1684,13 +1747,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="6">
-        <v>7.16</v>
+        <v>23.87</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>9</v>
@@ -1704,19 +1767,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D37" s="8">
-        <v>7.16</v>
+        <v>7.99</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,19 +1787,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" s="6">
-        <v>23.75</v>
+        <v>23.87</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,13 +1807,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="8">
-        <v>23.75</v>
+        <v>7.86</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -1764,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="6">
-        <v>7.29</v>
+        <v>23.87</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>9</v>
@@ -1784,19 +1847,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="8">
-        <v>7.29</v>
+        <v>7.86</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,19 +1867,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="8">
-        <v>23.81</v>
+        <v>7.9</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>13</v>
@@ -1844,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="6">
-        <v>7.31</v>
+        <v>23.87</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>9</v>
@@ -1864,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="8">
-        <v>23.81</v>
+        <v>7.9</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>13</v>
@@ -1884,13 +1947,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="6">
-        <v>7.31</v>
+        <v>23.87</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>9</v>
@@ -1904,13 +1967,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="8">
-        <v>23.81</v>
+        <v>8.71</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>13</v>
@@ -1924,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="6">
-        <v>7.4</v>
+        <v>23.87</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>9</v>
@@ -1944,13 +2007,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="8">
-        <v>23.81</v>
+        <v>8.71</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>13</v>
@@ -1964,19 +2027,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6">
-        <v>7.4</v>
+        <v>8.38</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,19 +2047,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D51" s="8">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,19 +2067,19 @@
         <v>6</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" s="6">
-        <v>7.59</v>
+        <v>8.38</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,19 +2087,19 @@
         <v>6</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="8">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,19 +2107,19 @@
         <v>6</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6">
-        <v>7.59</v>
+        <v>8.01</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,19 +2127,19 @@
         <v>6</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="8">
         <v>23.81</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,19 +2147,19 @@
         <v>6</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="6">
-        <v>7.3</v>
+        <v>8.01</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,19 +2167,19 @@
         <v>6</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" s="8">
         <v>23.81</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,19 +2187,19 @@
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6">
-        <v>7.3</v>
+        <v>7.95</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,19 +2207,19 @@
         <v>6</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" s="8">
         <v>23.81</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,19 +2227,19 @@
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" s="6">
-        <v>7.3</v>
+        <v>7.95</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,13 +2247,13 @@
         <v>6</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="8">
-        <v>7.3</v>
+        <v>23.81</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -2204,19 +2267,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D62" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="8">
-        <v>23.81</v>
+        <v>8.08</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>13</v>
@@ -2244,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="6">
-        <v>7.46</v>
+        <v>23.87</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>9</v>
@@ -2264,13 +2327,13 @@
         <v>6</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="8">
-        <v>23.75</v>
+        <v>8.08</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>13</v>
@@ -2284,13 +2347,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="6">
-        <v>7.46</v>
+        <v>23.87</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>9</v>
@@ -2304,13 +2367,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="8">
-        <v>23.75</v>
+        <v>8.32</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>13</v>
@@ -2324,13 +2387,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="6">
-        <v>7.39</v>
+        <v>23.94</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>9</v>
@@ -2344,13 +2407,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="8">
-        <v>23.81</v>
+        <v>8.32</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>13</v>
@@ -2364,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="6">
-        <v>7.39</v>
+        <v>23.94</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>9</v>
@@ -2384,13 +2447,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="8">
-        <v>23.81</v>
+        <v>7.44</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>13</v>
@@ -2404,13 +2467,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="6">
-        <v>7.88</v>
+        <v>23.87</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>9</v>
@@ -2424,13 +2487,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="8">
-        <v>23.81</v>
+        <v>7.44</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>13</v>
@@ -2444,13 +2507,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="6">
-        <v>7.88</v>
+        <v>23.87</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>9</v>
@@ -2464,13 +2527,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="8">
-        <v>23.81</v>
+        <v>7.9</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>13</v>
@@ -2484,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="6">
-        <v>7.84</v>
+        <v>23.87</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>9</v>
@@ -2504,19 +2567,19 @@
         <v>6</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D77" s="8">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,19 +2587,19 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,13 +2607,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="8">
-        <v>23.81</v>
+        <v>7.77</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>13</v>
@@ -2564,13 +2627,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="6">
-        <v>7.91</v>
+        <v>23.94</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>9</v>
@@ -2584,13 +2647,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="8">
-        <v>23.81</v>
+        <v>7.77</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>13</v>
@@ -2604,13 +2667,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="6">
-        <v>7.91</v>
+        <v>23.94</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>9</v>
@@ -2624,13 +2687,13 @@
         <v>6</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="8">
-        <v>23.81</v>
+        <v>7.72</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>13</v>
@@ -2644,13 +2707,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="6">
-        <v>7.64</v>
+        <v>23.94</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>9</v>
@@ -2664,19 +2727,19 @@
         <v>6</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D85" s="8">
-        <v>7.64</v>
+        <v>7.72</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,19 +2747,19 @@
         <v>6</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D86" s="6">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,13 +2767,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="8">
-        <v>23.81</v>
+        <v>7.33</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>13</v>
@@ -2724,13 +2787,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="6">
-        <v>7.67</v>
+        <v>23.87</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>9</v>
@@ -2744,19 +2807,19 @@
         <v>6</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D89" s="8">
-        <v>7.67</v>
+        <v>7.33</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,19 +2827,19 @@
         <v>6</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" s="6">
-        <v>23.75</v>
+        <v>23.87</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,13 +2847,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="8">
-        <v>23.75</v>
+        <v>7.57</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>13</v>
@@ -2804,13 +2867,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="6">
-        <v>7.89</v>
+        <v>23.87</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>9</v>
@@ -2824,13 +2887,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="8">
-        <v>23.75</v>
+        <v>7.57</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>13</v>
@@ -2844,13 +2907,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="6">
-        <v>7.89</v>
+        <v>23.87</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>9</v>
@@ -2864,13 +2927,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="8">
-        <v>23.75</v>
+        <v>8.01</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>13</v>
@@ -2884,13 +2947,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="6">
-        <v>7.99</v>
+        <v>23.94</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>9</v>
@@ -2904,13 +2967,13 @@
         <v>6</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="8">
-        <v>23.81</v>
+        <v>8.01</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>13</v>
@@ -2924,13 +2987,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="6">
-        <v>7.99</v>
+        <v>23.94</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>9</v>
@@ -2944,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="8">
-        <v>23.81</v>
+        <v>7.8</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
@@ -2964,13 +3027,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="6">
-        <v>7.7</v>
+        <v>23.94</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>9</v>
@@ -2984,19 +3047,19 @@
         <v>6</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D101" s="8">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,19 +3067,19 @@
         <v>6</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D102" s="6">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,13 +3087,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="8">
-        <v>23.81</v>
+        <v>7.73</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
@@ -3044,13 +3107,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="6">
-        <v>7.54</v>
+        <v>23.94</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>9</v>
@@ -3064,13 +3127,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="8">
-        <v>23.81</v>
+        <v>7.73</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
@@ -3084,13 +3147,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="6">
-        <v>7.54</v>
+        <v>23.94</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>9</v>
@@ -3104,13 +3167,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="8">
-        <v>23.81</v>
+        <v>7.83</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>13</v>
@@ -3124,13 +3187,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="6">
-        <v>8.26</v>
+        <v>23.94</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>9</v>
@@ -3144,13 +3207,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="8">
-        <v>23.81</v>
+        <v>7.83</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>13</v>
@@ -3164,13 +3227,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="6">
-        <v>8.26</v>
+        <v>23.94</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>9</v>
@@ -3184,13 +3247,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="8">
-        <v>23.81</v>
+        <v>8.41</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -3204,13 +3267,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="6">
-        <v>7.72</v>
+        <v>23.87</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>9</v>
@@ -3224,13 +3287,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="8">
-        <v>23.81</v>
+        <v>8.41</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>13</v>
@@ -3244,13 +3307,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="6">
-        <v>7.72</v>
+        <v>23.87</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>9</v>
@@ -3264,13 +3327,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="8">
-        <v>23.81</v>
+        <v>7.73</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>13</v>
@@ -3284,13 +3347,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="6">
-        <v>7.68</v>
+        <v>23.87</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -3304,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="8">
-        <v>23.81</v>
+        <v>7.73</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>13</v>
@@ -3324,13 +3387,13 @@
         <v>6</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="6">
-        <v>7.68</v>
+        <v>23.87</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>9</v>
@@ -3344,13 +3407,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="8">
-        <v>23.81</v>
+        <v>7.79</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>13</v>
@@ -3364,13 +3427,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="6">
-        <v>7.32</v>
+        <v>23.94</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>9</v>
@@ -3384,13 +3447,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="8">
-        <v>23.81</v>
+        <v>7.79</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>13</v>
@@ -3404,13 +3467,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="6">
-        <v>7.32</v>
+        <v>23.94</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>9</v>
@@ -3424,13 +3487,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="8">
-        <v>23.81</v>
+        <v>7.74</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>13</v>
@@ -3444,13 +3507,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="6">
-        <v>7.5</v>
+        <v>23.87</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>9</v>
@@ -3464,19 +3527,19 @@
         <v>6</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D125" s="8">
-        <v>7.5</v>
+        <v>7.74</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,19 +3547,19 @@
         <v>6</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D126" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,13 +3567,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="8">
-        <v>23.81</v>
+        <v>7.75</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>13</v>
@@ -3524,13 +3587,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="6">
-        <v>7.06</v>
+        <v>23.87</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>9</v>
@@ -3544,13 +3607,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="8">
-        <v>23.75</v>
+        <v>7.75</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>13</v>
@@ -3564,13 +3627,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="6">
-        <v>7.06</v>
+        <v>23.87</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>9</v>
@@ -3584,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="8">
-        <v>23.75</v>
+        <v>7.67</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>13</v>
@@ -3604,13 +3667,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="6">
-        <v>7.24</v>
+        <v>23.94</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>9</v>
@@ -3624,19 +3687,19 @@
         <v>6</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D133" s="8">
-        <v>7.24</v>
+        <v>7.67</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,19 +3707,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D134" s="6">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,13 +3727,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="8">
-        <v>23.81</v>
+        <v>8.21</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>13</v>
@@ -3684,13 +3747,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="6">
-        <v>7.16</v>
+        <v>23.94</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>9</v>
@@ -3704,19 +3767,19 @@
         <v>6</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D137" s="8">
-        <v>7.16</v>
+        <v>8.21</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,19 +3787,19 @@
         <v>6</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D138" s="6">
-        <v>23.75</v>
+        <v>23.94</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,13 +3807,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="8">
-        <v>23.75</v>
+        <v>8.5</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>13</v>
@@ -3764,13 +3827,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="6">
-        <v>7.45</v>
+        <v>23.94</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>9</v>
@@ -3784,13 +3847,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="8">
-        <v>23.75</v>
+        <v>8.5</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>13</v>
@@ -3804,13 +3867,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="6">
-        <v>7.45</v>
+        <v>23.94</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>9</v>
@@ -3824,13 +3887,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="8">
-        <v>23.75</v>
+        <v>7.76</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>13</v>
@@ -3844,13 +3907,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="6">
-        <v>7.39</v>
+        <v>23.94</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>9</v>
@@ -3864,13 +3927,13 @@
         <v>6</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="8">
-        <v>23.87</v>
+        <v>7.76</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>13</v>
@@ -3884,13 +3947,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="6">
-        <v>7.39</v>
+        <v>23.94</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>9</v>
@@ -3904,13 +3967,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="8">
-        <v>23.87</v>
+        <v>8.07</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>13</v>
@@ -3924,13 +3987,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="6">
-        <v>7.21</v>
+        <v>23.87</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>9</v>
@@ -3944,19 +4007,19 @@
         <v>6</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D149" s="8">
-        <v>7.21</v>
+        <v>8.07</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,19 +4027,19 @@
         <v>6</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D150" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,19 +4047,19 @@
         <v>6</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D151" s="8">
-        <v>7.18</v>
+        <v>8.33</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,19 +4067,19 @@
         <v>6</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D152" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,19 +4087,19 @@
         <v>6</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D153" s="8">
-        <v>7.48</v>
+        <v>8.33</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="6">
-        <v>7.31</v>
+        <v>23.87</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>9</v>
@@ -4064,13 +4127,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="8">
-        <v>23.81</v>
+        <v>8.01</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>13</v>
@@ -4084,19 +4147,19 @@
         <v>6</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D156" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,19 +4167,19 @@
         <v>6</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157" s="8">
-        <v>7.48</v>
+        <v>8.01</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,13 +4187,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="6">
-        <v>7.18</v>
+        <v>23.87</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>9</v>
@@ -4144,19 +4207,19 @@
         <v>6</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159" s="8">
-        <v>7.31</v>
+        <v>7.84</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,19 +4227,19 @@
         <v>6</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D160" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,13 +4247,13 @@
         <v>6</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="8">
-        <v>23.81</v>
+        <v>7.84</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>13</v>
@@ -4204,19 +4267,19 @@
         <v>6</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D162" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,13 +4287,13 @@
         <v>6</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="8">
-        <v>23.81</v>
+        <v>8.52</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>13</v>
@@ -4244,13 +4307,13 @@
         <v>6</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="6">
-        <v>7.18</v>
+        <v>23.87</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>9</v>
@@ -4264,19 +4327,19 @@
         <v>6</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D165" s="8">
-        <v>7.18</v>
+        <v>8.52</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,19 +4347,19 @@
         <v>6</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D166" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,13 +4367,13 @@
         <v>6</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="8">
-        <v>23.81</v>
+        <v>7.83</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>13</v>
@@ -4324,13 +4387,13 @@
         <v>6</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="6">
-        <v>7.26</v>
+        <v>23.94</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -4344,13 +4407,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="8">
-        <v>23.81</v>
+        <v>7.83</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>13</v>
@@ -4364,13 +4427,13 @@
         <v>6</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="6">
-        <v>7.26</v>
+        <v>23.94</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
@@ -4384,13 +4447,13 @@
         <v>6</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="8">
-        <v>23.81</v>
+        <v>7.39</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>13</v>
@@ -4404,13 +4467,13 @@
         <v>6</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="6">
-        <v>8.57</v>
+        <v>23.94</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>9</v>
@@ -4424,13 +4487,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="8">
-        <v>23.81</v>
+        <v>7.39</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>13</v>
@@ -4444,13 +4507,13 @@
         <v>6</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="6">
-        <v>8.57</v>
+        <v>23.94</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>9</v>
@@ -4464,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="8">
-        <v>23.81</v>
+        <v>8.16</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>13</v>
@@ -4484,13 +4547,13 @@
         <v>6</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="6">
-        <v>8.09</v>
+        <v>23.87</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>9</v>
@@ -4504,13 +4567,13 @@
         <v>6</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="8">
-        <v>23.87</v>
+        <v>8.16</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>13</v>
@@ -4524,19 +4587,19 @@
         <v>6</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D178" s="6">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,19 +4607,19 @@
         <v>6</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D179" s="8">
         <v>23.87</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,19 +4627,19 @@
         <v>6</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D180" s="6">
-        <v>7.86</v>
+        <v>8.08</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,19 +4647,19 @@
         <v>6</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D181" s="8">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,19 +4667,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D182" s="6">
-        <v>7.86</v>
+        <v>8.02</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,19 +4687,19 @@
         <v>6</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D183" s="8">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,19 +4707,19 @@
         <v>6</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D184" s="6">
-        <v>7.72</v>
+        <v>8.02</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,19 +4727,19 @@
         <v>6</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D185" s="8">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,13 +4747,13 @@
         <v>6</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="6">
-        <v>7.72</v>
+        <v>23.94</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>9</v>
@@ -4704,19 +4767,19 @@
         <v>6</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D187" s="8">
-        <v>7.68</v>
+        <v>7.97</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,19 +4787,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D188" s="6">
-        <v>23.81</v>
+        <v>23.87</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,19 +4807,19 @@
         <v>6</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D189" s="8">
-        <v>7.68</v>
+        <v>7.97</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,13 +4827,13 @@
         <v>6</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="6">
-        <v>7.93</v>
+        <v>23.87</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>9</v>
@@ -4784,13 +4847,13 @@
         <v>6</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="8">
-        <v>23.87</v>
+        <v>8.07</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>13</v>
@@ -4804,19 +4867,19 @@
         <v>6</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D192" s="6">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,19 +4887,19 @@
         <v>6</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D193" s="8">
-        <v>23.87</v>
+        <v>23.94</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,13 +4907,13 @@
         <v>6</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="6">
-        <v>8.3</v>
+        <v>23.94</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>9</v>
@@ -4864,19 +4927,19 @@
         <v>6</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D195" s="8">
-        <v>8.3</v>
+        <v>8.24</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,19 +4947,19 @@
         <v>6</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D196" s="6">
-        <v>23.75</v>
+        <v>23.94</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,13 +4967,13 @@
         <v>6</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="8">
-        <v>23.75</v>
+        <v>8.24</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>13</v>
@@ -4924,19 +4987,19 @@
         <v>6</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D198" s="6">
-        <v>23.81</v>
+        <v>23.94</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4944,19 +5007,19 @@
         <v>6</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D199" s="8">
-        <v>8.84</v>
+        <v>8.11</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,13 +5027,13 @@
         <v>6</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="6">
-        <v>8.84</v>
+        <v>23.87</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>9</v>
@@ -4984,13 +5047,13 @@
         <v>6</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="8">
-        <v>23.81</v>
+        <v>8.11</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>13</v>
@@ -5018,7 +5081,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5027,7 +5090,7 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5036,23 +5099,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B7" s="12">
         <f>SUM(B9:B10)</f>
@@ -5063,19 +5126,19 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5083,16 +5146,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="17">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5100,16 +5163,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="20">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
